--- a/Data/description_colonnes_meteo_US_nov2013_etendu.xlsx
+++ b/Data/description_colonnes_meteo_US_nov2013_etendu.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jean-marcfauvel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jean-marcfauvel/Documents/EMIASD/Projet_Flight/FLIGHT-3Y/data_description/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03245D-27BC-AB46-8EA9-70917707B6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED1B8A-A571-F442-9B4B-BF13D2B9A689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1300" windowWidth="21380" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="760" windowWidth="21380" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Col_Meteo_US" sheetId="1" r:id="rId1"/>
+    <sheet name="SkyCondition" sheetId="2" r:id="rId2"/>
+    <sheet name="WeatherType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
   <si>
     <t>Column Name</t>
   </si>
@@ -272,6 +274,330 @@
   </si>
   <si>
     <t>Lecture de l'altimètre en pouces de mercure.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Signification</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SKC</t>
+  </si>
+  <si>
+    <t>Sky Clear</t>
+  </si>
+  <si>
+    <t>Pas de nuages observés</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Ciel clair (aucun nuage en dessous de 12 000 pieds, station auto)</t>
+  </si>
+  <si>
+    <t>FEWnnn</t>
+  </si>
+  <si>
+    <t>Few clouds</t>
+  </si>
+  <si>
+    <t>1 à 2 octas de couverture (nuages rares), nnn = altitude en centaines de pieds</t>
+  </si>
+  <si>
+    <t>SCTnnn</t>
+  </si>
+  <si>
+    <t>Scattered clouds</t>
+  </si>
+  <si>
+    <t>3 à 4 octas de couverture (nuages épars)</t>
+  </si>
+  <si>
+    <t>BKNnnn</t>
+  </si>
+  <si>
+    <t>Broken clouds</t>
+  </si>
+  <si>
+    <t>5 à 7 octas (nuages fragmentés - couverture significative)</t>
+  </si>
+  <si>
+    <t>OVCnnn</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>8 octas (ciel couvert)</t>
+  </si>
+  <si>
+    <t>VVnnn</t>
+  </si>
+  <si>
+    <t>Vertical visibility</t>
+  </si>
+  <si>
+    <t>Visibilité verticale limitée (ex. brouillard épais)</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>No significant clouds</t>
+  </si>
+  <si>
+    <t>Aucun nuage significatif</t>
+  </si>
+  <si>
+    <t>///</t>
+  </si>
+  <si>
+    <t>Indisponible</t>
+  </si>
+  <si>
+    <t>Données manquantes ou non valides</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Faible</t>
+  </si>
+  <si>
+    <t>Intensité faible du phénomène</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Fort</t>
+  </si>
+  <si>
+    <t>Intensité forte</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>Dans les environs</t>
+  </si>
+  <si>
+    <t>Phénomène proche (dans un rayon de ~8 km)</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Pluie</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Neige</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Snow Grains</t>
+  </si>
+  <si>
+    <t>Grains de neige</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>Ice Crystals</t>
+  </si>
+  <si>
+    <t>Cristaux de glace</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Ice Pellets</t>
+  </si>
+  <si>
+    <t>Granules de glace</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>Grêle (≥ 5 mm)</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>Small Hail</t>
+  </si>
+  <si>
+    <t>Petite grêle ou granules de neige</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>Unknown Precipitation</t>
+  </si>
+  <si>
+    <t>Précipitation non identifiée (station auto)</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Drizzle</t>
+  </si>
+  <si>
+    <t>Bruine</t>
+  </si>
+  <si>
+    <t>FZ</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>Préfixe indiquant givre ou verglas</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>Brume</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Brouillard</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Fumée</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Volcanic Ash</t>
+  </si>
+  <si>
+    <t>Cendres volcaniques</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>Poussière généralisée</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Sable</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>Haze</t>
+  </si>
+  <si>
+    <t>Brume sèche ou poussiéreuse</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Thunderstorm</t>
+  </si>
+  <si>
+    <t>Orage</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>Squall</t>
+  </si>
+  <si>
+    <t>Rafales violentes</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Sandstorm</t>
+  </si>
+  <si>
+    <t>Tempête de sable</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Duststorm</t>
+  </si>
+  <si>
+    <t>Tempête de poussière</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Dust/Sand Whirls</t>
+  </si>
+  <si>
+    <t>Tourbillons de poussière ou sable</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Funnel Cloud/Tornado</t>
+  </si>
+  <si>
+    <t>Tornade ou trombe</t>
   </si>
 </sst>
 </file>
@@ -641,7 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1296,4 +1624,437 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443284F-7EF5-4E47-8480-A8839FC15A4D}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A73860-3113-BD4A-AD74-77FA463FE06F}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>